--- a/SuppXLS/Scen_Electricity_Profile_ENTSO.xlsx
+++ b/SuppXLS/Scen_Electricity_Profile_ENTSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7A0E0C-8727-4B6E-BA41-AEE32099FF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA90738-E25D-48EC-BAE2-2AE1A3D55F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5805" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
